--- a/four_sites_summary.xlsx
+++ b/four_sites_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
   <si>
     <t>Site</t>
   </si>
@@ -126,12 +126,6 @@
     <t>No impact</t>
   </si>
   <si>
-    <t>Waves on Wave effect</t>
-  </si>
-  <si>
-    <t>Contrasting changes</t>
-  </si>
-  <si>
     <t>ambiguous</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>no impact</t>
+  </si>
+  <si>
+    <t>+/-</t>
+  </si>
+  <si>
+    <t>Urchin on young mac</t>
   </si>
 </sst>
 </file>
@@ -162,18 +162,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -192,7 +186,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,24 +488,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J16"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="3" max="3" width="37.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" customWidth="1"/>
+    <col min="8" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,19 +529,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -556,26 +545,17 @@
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
+      <c r="E2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -595,19 +575,10 @@
         <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -621,30 +592,21 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
         <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -659,143 +621,217 @@
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I14" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F15" t="s">
         <v>19</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>40</v>
-      </c>
-      <c r="G13" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="I19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="48" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/four_sites_summary.xlsx
+++ b/four_sites_summary.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Site</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>Urchin on young mac</t>
+  </si>
+  <si>
+    <t>Predicted Site</t>
+  </si>
+  <si>
+    <t>Predictor site</t>
+  </si>
+  <si>
+    <t>Cross-site predictability, macrocystis</t>
   </si>
 </sst>
 </file>
@@ -162,15 +171,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,15 +205,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,9 +872,72 @@
       <c r="A21" s="1"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="8"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/four_sites_summary.xlsx
+++ b/four_sites_summary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="23955" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="120" windowWidth="23955" windowHeight="11250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="44">
   <si>
     <t>Site</t>
   </si>
@@ -538,10 +538,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,7 +556,7 @@
     <col min="8" max="9" width="26.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +578,20 @@
       <c r="G1" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -601,8 +613,20 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -624,8 +648,20 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -647,8 +683,20 @@
       <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -670,11 +718,23 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
@@ -688,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -705,7 +765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -722,7 +782,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -739,7 +799,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -756,12 +816,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -947,12 +1007,203 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
